--- a/OB2_ICC.xlsx
+++ b/OB2_ICC.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soowan/Documents/VSCODE/Pearl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99B1A9E-2F1A-C649-A71E-0AC98FE9512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD12C665-E6A0-4F4B-B13D-002F0764FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Single Left" sheetId="1" r:id="rId1"/>
-    <sheet name="Single Right" sheetId="2" r:id="rId2"/>
-    <sheet name="TUG" sheetId="3" r:id="rId3"/>
+    <sheet name="Five" sheetId="9" r:id="rId1"/>
+    <sheet name="SeatClfStr" sheetId="4" r:id="rId2"/>
+    <sheet name="TdemStnce" sheetId="8" r:id="rId3"/>
+    <sheet name="CalfStr" sheetId="7" r:id="rId4"/>
+    <sheet name="ForStep" sheetId="6" r:id="rId5"/>
+    <sheet name="Run" sheetId="5" r:id="rId6"/>
+    <sheet name="Single Left" sheetId="1" r:id="rId7"/>
+    <sheet name="Single Right" sheetId="2" r:id="rId8"/>
+    <sheet name="TUG" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="32">
   <si>
     <t>Participant</t>
   </si>
@@ -985,11 +991,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE972A06-C826-3242-99D1-3AE5B78173A2}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="A25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,6 +1012,1621 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11.817494999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12.548500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.57653</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.2202999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.8808499999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.2060999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14.870850000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>14.4564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9.3109999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10.047700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.3194999999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.1425999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>17.236499999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18.147500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5.1920000000000002</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.6532999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.0275999999999996</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.8034999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15.8443</v>
+      </c>
+      <c r="C15" s="1">
+        <v>16.605899999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.3811</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.2395999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.2515999999999998</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7.6181000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.5063</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.6362999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10.8292</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10.928000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9.8846000000000007</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7.4995000000000003</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7.4880000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6.5453999999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6.984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5.0285000000000002</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.5490000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8.0076999999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8.359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20.417400000000001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>22.132000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.3719000000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7.4880000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7.8846999999999996</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6.8949999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5.9076000000000004</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6.3959999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA8AC50-F73F-0440-A7A7-53B68823DFED}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>24.619800000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>23.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10.864000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>25.815899999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>22.268000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>23.478999999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>23.276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>25.488399999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>26.463999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>24.355799999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10.132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>21.452100000000002</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>21.283000000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>22.657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>21.292000000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>22.783999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>21.02</v>
+      </c>
+      <c r="C28" s="1">
+        <v>20.731000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AB51E0-0AC4-D943-A896-0EF44B421C6C}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>18.888999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19.623999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21.263999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>19.263999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17.967700000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16.623999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>24.568000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>23.436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>21.791599999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>23.1084</v>
+      </c>
+      <c r="C16" s="1">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>12.391999999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>24.027999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9.1639999999999997</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22.459800000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22.332000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20.384</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20.263999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>22.251999999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>24.96</v>
+      </c>
+      <c r="C26" s="1">
+        <v>28.172000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>19.052</v>
+      </c>
+      <c r="C28" s="1">
+        <v>19.148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF0DE9B-BA41-A44D-8F61-5E92FEA08ED6}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24.091819999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23.888000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>29.459800000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>29.407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>46.237189999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>46.216000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.2872000000000003</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.3150000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>23.011900000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>22.988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>29.46951</v>
+      </c>
+      <c r="C16" s="1">
+        <v>28.401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>21.867999999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>21.805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>23.6235</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23.308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>28.556000000000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>28.576000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>26.888000000000002</v>
+      </c>
+      <c r="C25" s="1">
+        <v>26.835999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25.984000000000002</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25.835999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>34.298999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>30.352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>23.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D49838A-32B8-3847-8BCE-8183A56879F4}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22.89603</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23.484000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18.704000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18.815999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>25.1922</v>
+      </c>
+      <c r="C9" s="1">
+        <v>26.187999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>22.203600000000002</v>
+      </c>
+      <c r="C11" s="1">
+        <v>22.071000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>21.391999999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>21.236000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>33.480200000000004</v>
+      </c>
+      <c r="C16" s="1">
+        <v>33.404000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>21.420200000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>21.292000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>24.571999999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>26.423999999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>29.512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>23.667999999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>23.655999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45.415999999999997</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45.463999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>30.088000000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>30.132000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9.2110000000000003</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10.476000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FEC0C5-E666-4147-AA9F-14300186CA26}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11.424016999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11.523999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16.216239999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16.012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>14.708</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14.456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8.8501999999999992</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.3460000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10.7081</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10.557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11.760199999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>11.763999999999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11.632999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>11.6282</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11.555999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>17.347999999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>17.359000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10.571999999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10.403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>12.835000000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>13.252000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10.536</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10.356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10.32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10.202999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +2939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1104B4DB-4636-9140-8412-73411E681B78}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -1652,11 +3273,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544F6261-ED9C-2B4F-B21E-CB518399C507}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
